--- a/base.xlsx
+++ b/base.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -483,6 +483,83 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>830130638</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>spiviksj</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FghJJhgF16052659</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>830130638</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spiviksj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FghJJhgF16052659</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>830130638</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>spiviksj</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>a;ljgfl;sfjksa;f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>830130638</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lhlj</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lj;ljk;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>830130638</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdfadfsaf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:J1"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,75 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>id пользователя</t>
-  </si>
-  <si>
-    <t>Логин Steam</t>
-  </si>
-  <si>
-    <t>Пароль Steam</t>
-  </si>
-  <si>
-    <t>Статус оплаты</t>
-  </si>
-  <si>
-    <t>Тип баланса S-статический; D-динамический</t>
-  </si>
-  <si>
-    <t>Ставки после крашей (1-5)</t>
-  </si>
-  <si>
-    <t>Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)</t>
-  </si>
-  <si>
-    <t>Фикс. ставка после лесенки</t>
-  </si>
-  <si>
-    <t>Несгораемый баланс</t>
-  </si>
-  <si>
-    <t>Выбранный сайт</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="8"/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -141,40 +106,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1278,221 +1356,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="14.4" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col customWidth="1" max="4" min="1" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.8516"/>
+    <col customWidth="1" max="14" min="6" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="16384" min="15" style="1" width="8.851559999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row customHeight="1" ht="13.55" r="1" s="15">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id пользователя</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Логин Steam</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Пароль Steam</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Статус оплаты</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Тип баланса S-статический; D-динамический</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Ставки после крашей (1-5)</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="16" t="n"/>
+      <c r="J1" s="17" t="n"/>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Фикс. ставка после лесенки</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Несгораемый баланс</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Выбранный сайт</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" hidden="1" ht="9" r="2" s="15">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="3" s="15">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="7" t="n"/>
+      <c r="K3" s="7" t="n"/>
+      <c r="L3" s="7" t="n"/>
+      <c r="M3" s="7" t="n"/>
+      <c r="N3" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="4" s="15">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="5" s="15">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="n"/>
+      <c r="L5" s="10" t="n"/>
+      <c r="M5" s="10" t="n"/>
+      <c r="N5" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="6" s="15">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="n"/>
+      <c r="L6" s="10" t="n"/>
+      <c r="M6" s="10" t="n"/>
+      <c r="N6" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="7" s="15">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="10" t="n"/>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
+      <c r="L7" s="10" t="n"/>
+      <c r="M7" s="10" t="n"/>
+      <c r="N7" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="8" s="15">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="M8" s="10" t="n"/>
+      <c r="N8" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="9" s="15">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="10" t="n"/>
+      <c r="K9" s="10" t="n"/>
+      <c r="L9" s="10" t="n"/>
+      <c r="M9" s="10" t="n"/>
+      <c r="N9" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="10" s="15">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
+      <c r="N10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>830130638</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>asdfasf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dn</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
+      <c r="G11" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" ht="9" customHeight="1" hidden="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="H11" t="n">
+        <v>28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -46,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -107,17 +107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -137,69 +126,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -216,33 +149,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1361,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,13 +1275,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="14.4" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13.5"/>
+    <col customWidth="1" max="4" min="2" style="1" width="8.851559999999999"/>
     <col customWidth="1" max="5" min="5" style="1" width="13.8516"/>
     <col customWidth="1" max="14" min="6" style="1" width="8.851559999999999"/>
     <col customWidth="1" max="16384" min="15" style="1" width="8.851559999999999"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.55" r="1" s="15">
+    <row customHeight="1" ht="13.55" r="1" s="6">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id пользователя</t>
@@ -1406,10 +1313,10 @@
           <t>Ставки после крашей (1-5)</t>
         </is>
       </c>
-      <c r="G1" s="16" t="n"/>
-      <c r="H1" s="16" t="n"/>
-      <c r="I1" s="16" t="n"/>
-      <c r="J1" s="17" t="n"/>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="7" t="n"/>
+      <c r="I1" s="7" t="n"/>
+      <c r="J1" s="8" t="n"/>
       <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)</t>
@@ -1431,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" hidden="1" ht="9" r="2" s="15">
+    <row customHeight="1" hidden="1" ht="9" r="2" s="6">
       <c r="A2" s="3" t="n"/>
       <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
@@ -1447,181 +1354,123 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="13.55" r="3" s="15">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="7" t="n"/>
-      <c r="K3" s="7" t="n"/>
-      <c r="L3" s="7" t="n"/>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="8" t="n"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>830130638</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>spiviksj</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>FghJJhgF16052659</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Динамический</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>csgo.band</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="13.55" r="4" s="15">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="5" s="15">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="6" s="15">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="10" t="n"/>
-      <c r="M6" s="10" t="n"/>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="7" s="15">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="8" s="15">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="9" s="15">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="10" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="10" s="15">
-      <c r="A10" s="12" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>830130638</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>asdfasf</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>775274522</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jdof</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lsfd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>dn</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Динамический</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G4" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H4" t="n">
         <v>28</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I4" t="n">
         <v>95</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J4" t="n">
         <v>100</v>
       </c>
-      <c r="M11" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>fail</t>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>csgo.band</t>
         </is>
       </c>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -46,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -107,6 +107,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -126,13 +137,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -149,6 +216,36 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1267,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,7 +1379,7 @@
     <col customWidth="1" max="16384" min="15" style="1" width="8.851559999999999"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.55" r="1" s="6">
+    <row customHeight="1" ht="13.55" r="1" s="16">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id пользователя</t>
@@ -1313,10 +1410,10 @@
           <t>Ставки после крашей (1-5)</t>
         </is>
       </c>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="8" t="n"/>
+      <c r="G1" s="17" t="n"/>
+      <c r="H1" s="17" t="n"/>
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="18" t="n"/>
       <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)</t>
@@ -1338,7 +1435,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" hidden="1" ht="9" r="2" s="6">
+    <row customHeight="1" hidden="1" ht="9" r="2" s="16">
       <c r="A2" s="3" t="n"/>
       <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
@@ -1354,123 +1451,219 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row customHeight="1" ht="13.55" r="3" s="16">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>775274522</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>jdof</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>lsfd</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Динамический</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>95</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>csgo.band</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.55" r="4" s="16">
+      <c r="A4" s="10" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="5" s="16">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="11" t="n"/>
+      <c r="K5" s="11" t="n"/>
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="6" s="16">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="11" t="n"/>
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="7" s="16">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="11" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="8" s="16">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="11" t="n"/>
+      <c r="L8" s="11" t="n"/>
+      <c r="M8" s="11" t="n"/>
+      <c r="N8" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.55" r="9" s="16">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="14" t="n"/>
+      <c r="N9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>830130638</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>spiviksj</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>FghJJhgF16052659</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Динамический</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H10" t="n">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I10" t="n">
         <v>95</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J10" t="n">
         <v>100</v>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>csgo.band</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>775274522</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>jdof</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>lsfd</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Динамический</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>csgo.band</t>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>cs.fail</t>
         </is>
       </c>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,52 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">id пользователя
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логин Steam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пароль Steam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус оплаты
+</t>
+  </si>
+  <si>
+    <t>Тип баланса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставки после крашей (1-5)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фикс. ставка после лесенки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несгораемый баланс
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбранный сайт
+</t>
+  </si>
+  <si>
+    <t>830130638</t>
+  </si>
+  <si>
+    <t>spiviksj</t>
+  </si>
+  <si>
+    <t>FghJJhgF16052659</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Динамический</t>
+  </si>
+  <si>
+    <t>csgo.band</t>
+  </si>
+  <si>
+    <t>775274522</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>cs.fail</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <name val="Calibri"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <sz val="11"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="13"/>
       <color indexed="8"/>
-      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -56,29 +149,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -86,176 +179,161 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -267,6 +345,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff6a8758"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
@@ -275,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Blank">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -291,22 +372,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="00A2FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="16E7CF"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFD932"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="FF42A1"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -315,7 +396,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Blank">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -327,7 +408,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,31 +481,13 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -492,16 +555,10 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -787,13 +844,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1078,7 +1129,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1359,327 +1410,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="14.4" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13.5"/>
-    <col customWidth="1" max="4" min="2" style="1" width="8.851559999999999"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13.8516"/>
-    <col customWidth="1" max="14" min="6" style="1" width="8.851559999999999"/>
-    <col customWidth="1" max="16384" min="15" style="1" width="8.851559999999999"/>
+    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.55" r="1" s="16">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id пользователя</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Логин Steam</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Пароль Steam</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Статус оплаты</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Тип баланса S-статический; D-динамический</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Ставки после крашей (1-5)</t>
-        </is>
-      </c>
-      <c r="G1" s="17" t="n"/>
-      <c r="H1" s="17" t="n"/>
-      <c r="I1" s="17" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Участие в лесенках (0-нет, 1-КНК, 2-КНКНК)</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Фикс. ставка после лесенки</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Несгораемый баланс</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Выбранный сайт</t>
-        </is>
+    <row r="1" ht="37.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s" s="4">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" hidden="1" ht="9" r="2" s="16">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="n"/>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10">
+        <v>95</v>
+      </c>
+      <c r="J2" s="10">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s" s="11">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.55" r="3" s="16">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>775274522</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>jdof</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>lsfd</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Динамический</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>csgo.band</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.55" r="4" s="16">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="11" t="n"/>
-      <c r="E4" s="11" t="n"/>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="11" t="n"/>
-      <c r="J4" s="11" t="n"/>
-      <c r="K4" s="11" t="n"/>
-      <c r="L4" s="11" t="n"/>
-      <c r="M4" s="11" t="n"/>
-      <c r="N4" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="5" s="16">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="11" t="n"/>
-      <c r="K5" s="11" t="n"/>
-      <c r="L5" s="11" t="n"/>
-      <c r="M5" s="11" t="n"/>
-      <c r="N5" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="6" s="16">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="11" t="n"/>
-      <c r="K6" s="11" t="n"/>
-      <c r="L6" s="11" t="n"/>
-      <c r="M6" s="11" t="n"/>
-      <c r="N6" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="7" s="16">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="11" t="n"/>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="11" t="n"/>
-      <c r="M7" s="11" t="n"/>
-      <c r="N7" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="8" s="16">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="11" t="n"/>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="11" t="n"/>
-      <c r="N8" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.55" r="9" s="16">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>830130638</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>spiviksj</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FghJJhgF16052659</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Динамический</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>28</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>cs.fail</t>
-        </is>
+      <c r="K3" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>